--- a/static/fields/drugorangebook_reference.xlsx
+++ b/static/fields/drugorangebook_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackfinch/WebstormProjects/open.fda.gov/static/fields/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/violet.wren/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA25AD8-4947-254C-9F08-85C68F447CC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EDB2BD-935B-8A45-B561-79BE0D58B2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drug_label_fields" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Field Name</t>
   </si>
@@ -45,104 +45,19 @@
     <t>Section</t>
   </si>
   <si>
-    <t>OpenFDA fields</t>
-  </si>
-  <si>
     <t>application_number</t>
   </si>
   <si>
     <t>brand_name</t>
   </si>
   <si>
-    <t>generic_name</t>
-  </si>
-  <si>
-    <t>manufacturer_name</t>
-  </si>
-  <si>
-    <t>nui</t>
-  </si>
-  <si>
-    <t>package_ndc</t>
-  </si>
-  <si>
-    <t>array of strings</t>
-  </si>
-  <si>
-    <t>product_ndc</t>
-  </si>
-  <si>
     <t>route</t>
   </si>
   <si>
-    <t>rxcui</t>
-  </si>
-  <si>
-    <t>spl_id</t>
-  </si>
-  <si>
-    <t>spl_set_id</t>
-  </si>
-  <si>
-    <t>substance_name</t>
-  </si>
-  <si>
-    <t>unii</t>
-  </si>
-  <si>
-    <t>This corresponds to the NDA, ANDA, or BLA number reported by the labeler for products which have the corresponding Marketing Category designated. If the designated Marketing Category is OTC Monograph Final or OTC Monograph Not Final, then the application number will be the CFR citation corresponding to the appropriate Monograph (e.g. “part 341”). For unapproved drugs, this field will be null.
-Values follow this pattern:
-^[BLA|ANDA|NDA]{3,4}[0-9]{6}$</t>
-  </si>
-  <si>
     <t>Brand or trade name of the drug product.</t>
   </si>
   <si>
-    <t>Generic name(s) of the drug product.</t>
-  </si>
-  <si>
-    <t>Name of manufacturer or company that makes this drug product, corresponding to the labeler code segment of the NDC.</t>
-  </si>
-  <si>
-    <t>Unique identifier applied to a drug concept within the National Drug File Reference Terminology (NDF-RT).
-Values follow this pattern:
-^[N][0-9]{10}$</t>
-  </si>
-  <si>
-    <t>This number, known as the NDC, identifies the labeler, product, and trade package size. The first segment, the labeler code, is assigned by the FDA. A labeler is any firm that manufactures (including repackers or relabelers), or distributes (under its own name) the drug.
-Values follow this pattern:
-^[0-9]{5,4}-[0-9]{4,3}-[0-9]{1,2}$</t>
-  </si>
-  <si>
-    <t>The labeler manufacturer code and product code segments of the NDC number, separated by a hyphen.
-Values follow this pattern:
-^[0-9]{5,4}-[0-9]{4,3}$</t>
-  </si>
-  <si>
     <t>The route of administation of the drug product.</t>
-  </si>
-  <si>
-    <t>The RxNorm Concept Unique Identifier. RxCUI is a unique number that describes a semantic concept about the drug product, including its ingredients, strength, and dose forms.
-Values follow this pattern:
-^[0-9]{6}$</t>
-  </si>
-  <si>
-    <t>Unique identifier for a particular version of a Structured Product Label for a product. Also referred to as the document ID.
-Values follow this pattern:
-^[a-fA-F0-9]{8}-[a-fA-F0-9]{4}-[a-fA-F0-9]{4}-[a-fA-F0-9]{4}-[a-fA-F0-9]{12}$</t>
-  </si>
-  <si>
-    <t>Unique identifier for the Structured Product Label for a product, which is stable across versions of the label. Also referred to as the set ID.
-Values follow this pattern:
-^[a-fA-F0-9]{8}-[a-fA-F0-9]{4}-[a-fA-F0-9]{4}-[a-fA-F0-9]{4}-[a-fA-F0-9]{12}$</t>
-  </si>
-  <si>
-    <t>The list of active ingredients of a drug product.</t>
-  </si>
-  <si>
-    <t>Unique Ingredient Identifier, which is a non-proprietary, free, unique, unambiguous, non-semantic, alphanumeric identifier based on a substance’s molecular structure and/or descriptive information.
-Values follow this pattern:
-^[A-Z0-9]{10}$</t>
   </si>
   <si>
     <t>Active Ingredients</t>
@@ -443,25 +358,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,18 +816,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -932,162 +847,162 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1098,332 +1013,140 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="52" fitToHeight="10" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="52" fitToHeight="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/static/fields/drugorangebook_reference.xlsx
+++ b/static/fields/drugorangebook_reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/violet.wren/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EDB2BD-935B-8A45-B561-79BE0D58B2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63EEADA-5C16-4E4A-BE22-C6F58DB5F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Field Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>The route of administation of the drug product.</t>
   </si>
   <si>
-    <t>Active Ingredients</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Products approved prior to the January 1, 1982 contain the phrase: "Approved prior to Jan 1, 1982".</t>
   </si>
   <si>
-    <t>he RLD is a drug product approved under section 505(c) of the FD&amp;C Act for which FDA has made a finding of safety and effectiveness. In the electronic Orange Book, an RLD is identified by “RLD” in the RLD column.</t>
-  </si>
-  <si>
     <t>The group or category of approved drugs.</t>
   </si>
   <si>
@@ -193,6 +187,18 @@
   </si>
   <si>
     <t>The date the exclusivity expires.</t>
+  </si>
+  <si>
+    <t>The RLD is a drug product approved under section 505(c) of the FD&amp;C Act for which FDA has made a finding of safety and effectiveness. In the electronic Orange Book, an RLD is identified by “RLD” in the RLD column.</t>
+  </si>
+  <si>
+    <t>reference_standard</t>
+  </si>
+  <si>
+    <t>A highly purified compound that is well characterized.</t>
+  </si>
+  <si>
+    <t>active_ingredients</t>
   </si>
 </sst>
 </file>
@@ -816,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,7 +833,7 @@
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="76.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="86.83203125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -847,41 +853,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -908,35 +914,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,206 +953,217 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="52" fitToHeight="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="52" fitToHeight="10" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/static/fields/drugorangebook_reference.xlsx
+++ b/static/fields/drugorangebook_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/violet.wren/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63EEADA-5C16-4E4A-BE22-C6F58DB5F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6A34E-AB94-0242-90A5-6DC162115518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="drug_label_fields" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>Field Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Brand or trade name of the drug product.</t>
   </si>
   <si>
-    <t>The route of administation of the drug product.</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -199,13 +196,34 @@
   </si>
   <si>
     <t>active_ingredients</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>products.active_ingredients</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>array of strings</t>
+  </si>
+  <si>
+    <t>The route of administration of the drug product.</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>array of objects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +261,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -384,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="99">
@@ -822,17 +850,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="86.83203125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -851,312 +879,380 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
